--- a/Notebooks/Subsystem_Counts.xlsx
+++ b/Notebooks/Subsystem_Counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sartorius-my.sharepoint.com/personal/a_antonakoudis_sartorius_com/Documents/Documents/Projects/UCSD Project/Whole-Cell-Network-Reconstruction-for-CHO-cells-2/Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablodigiusto/Documents/GitHub/Whole-Cell-Network-Reconstruction-for-CHO-cells/Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="454" documentId="11_0B8195009D7B7E0E62355476585DCE3A8747EDE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412C5E68-9AEA-462D-BC49-4D31630777CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66BF0F1-8663-CA44-98E6-F188156B7B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="163">
   <si>
     <t>Subsystem</t>
   </si>
@@ -455,12 +455,6 @@
     <t>Package</t>
   </si>
   <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>uu</t>
-  </si>
-  <si>
     <t>Number of rxns</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>Fatty acids</t>
   </si>
   <si>
-    <t>Vitamins</t>
-  </si>
-  <si>
     <t>Central Carbon Metabolism</t>
   </si>
   <si>
@@ -522,13 +513,22 @@
   </si>
   <si>
     <t>Amino acids (Generic, SEL, GAL, LYS, VAL)</t>
+  </si>
+  <si>
+    <t>Vitamins 1</t>
+  </si>
+  <si>
+    <t>Vitamins 2</t>
+  </si>
+  <si>
+    <t>Inositol Phosphate &amp; others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +545,12 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -910,22 +916,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -936,10 +942,10 @@
         <v>139</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>78</v>
       </c>
@@ -950,17 +956,17 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G2">
         <f>SUMIF($D$2:$D$138,F2,$C$2:$C$138)</f>
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35</v>
       </c>
@@ -971,17 +977,17 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" si="0">SUMIF($D$2:$D$138,F3,$C$2:$C$138)</f>
+        <f t="shared" ref="G3:G4" si="0">SUMIF($D$2:$D$138,F3,$C$2:$C$138)</f>
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>92</v>
       </c>
@@ -992,17 +998,17 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>84</v>
       </c>
@@ -1013,17 +1019,17 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F5,$C$2:$C$138)/2</f>
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>75</v>
       </c>
@@ -1034,17 +1040,17 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F6,$C$2:$C$138)/2</f>
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>67</v>
       </c>
@@ -1055,17 +1061,17 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="2">
-        <f>SUMIF($D$2:$D$138,F7,$C$2:$C$138)/13</f>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="G7">
+        <f>SUMIF($D$2:$D$138,F7,$C$2:$C$138)</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>128</v>
       </c>
@@ -1076,17 +1082,17 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:G19" si="1">SUMIF($D$2:$D$138,F8,$C$2:$C$138)/13</f>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F8,$C$2:$C$138)/16</f>
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1097,17 +1103,17 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G9:G23" si="1">SUMIF($D$2:$D$138,F9,$C$2:$C$138)/16</f>
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43</v>
       </c>
@@ -1118,17 +1124,17 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>125</v>
       </c>
@@ -1139,17 +1145,17 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>129</v>
       </c>
@@ -1160,17 +1166,17 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>38</v>
       </c>
@@ -1181,17 +1187,17 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>68</v>
       </c>
@@ -1202,17 +1208,17 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>101</v>
       </c>
@@ -1223,17 +1229,17 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>80</v>
       </c>
@@ -1244,17 +1250,17 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>56</v>
       </c>
@@ -1265,17 +1271,17 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>46</v>
       </c>
@@ -1286,17 +1292,17 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>76</v>
       </c>
@@ -1307,17 +1313,17 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>270.38461538461536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>50</v>
       </c>
@@ -1328,17 +1334,17 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>30</v>
       </c>
@@ -1349,17 +1355,17 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2">
-        <f>SUMIF($D$2:$D$138,F21,$C$2:$C$138)/7</f>
-        <v>280.71428571428572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1370,17 +1376,17 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" ref="G22:G27" si="2">SUMIF($D$2:$D$138,F22,$C$2:$C$138)/7</f>
-        <v>280.71428571428572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>58</v>
       </c>
@@ -1391,17 +1397,17 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="2"/>
-        <v>280.71428571428572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>219.6875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40</v>
       </c>
@@ -1412,17 +1418,17 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="2"/>
-        <v>280.71428571428572</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G24">
+        <f>SUMIF($D$2:$D$138,F24,$C$2:$C$138)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42</v>
       </c>
@@ -1433,17 +1439,17 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="2"/>
-        <v>280.71428571428572</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="G25">
+        <f>SUMIF($D$2:$D$138,F25,$C$2:$C$138)</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>61</v>
       </c>
@@ -1454,17 +1460,17 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="2"/>
-        <v>280.71428571428572</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F26,$C$2:$C$138)/9</f>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>114</v>
       </c>
@@ -1475,17 +1481,17 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="2"/>
-        <v>280.71428571428572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G27:G34" si="2">SUMIF($D$2:$D$138,F27,$C$2:$C$138)/9</f>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>124</v>
       </c>
@@ -1496,17 +1502,17 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>116</v>
       </c>
@@ -1517,17 +1523,17 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>85</v>
       </c>
@@ -1538,17 +1544,17 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>135</v>
       </c>
@@ -1559,17 +1565,17 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>52</v>
       </c>
@@ -1580,17 +1586,17 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>53</v>
       </c>
@@ -1601,17 +1607,17 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>89</v>
       </c>
@@ -1622,17 +1628,17 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>218.33333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>55</v>
       </c>
@@ -1643,17 +1649,17 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F35,$C$2:$C$138)</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>73</v>
       </c>
@@ -1664,17 +1670,17 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F36,$C$2:$C$138)</f>
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>54</v>
       </c>
@@ -1685,17 +1691,17 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F37,$C$2:$C$138)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1706,17 +1712,17 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F38" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F38,$C$2:$C$138)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>98</v>
       </c>
@@ -1727,17 +1733,17 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F39,$C$2:$C$138)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>66</v>
       </c>
@@ -1748,17 +1754,17 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F40,$C$2:$C$138)</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>103</v>
       </c>
@@ -1769,17 +1775,17 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUMIF($D$2:$D$138,F41,$C$2:$C$138)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>69</v>
       </c>
@@ -1790,10 +1796,17 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="F42" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42">
+        <f>SUMIF($D$2:$D$138,F42,$C$2:$C$138)</f>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>136</v>
       </c>
@@ -1804,10 +1817,17 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43">
+        <f>SUMIF($D$2:$D$138,F43,$C$2:$C$138)</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>48</v>
       </c>
@@ -1818,10 +1838,17 @@
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G44">
+        <f>SUMIF($D$2:$D$138,F44,$C$2:$C$138)</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>60</v>
       </c>
@@ -1832,10 +1859,17 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F45" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45">
+        <f>SUMIF($D$2:$D$138,F45,$C$2:$C$138)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>71</v>
       </c>
@@ -1846,10 +1880,17 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46">
+        <f>SUMIF($D$2:$D$138,F46,$C$2:$C$138)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1860,10 +1901,17 @@
         <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47">
+        <f>SUMIF($D$2:$D$138,F47,$C$2:$C$138)</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>87</v>
       </c>
@@ -1874,10 +1922,14 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G48">
+        <f>SUMIF($D$2:$D$138,F48,$C$2:$C$138)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -1888,10 +1940,10 @@
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>34</v>
       </c>
@@ -1902,10 +1954,10 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>115</v>
       </c>
@@ -1916,10 +1968,10 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>95</v>
       </c>
@@ -1930,10 +1982,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>133</v>
       </c>
@@ -1944,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>79</v>
       </c>
@@ -1958,10 +2010,10 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>6</v>
       </c>
@@ -1972,10 +2024,10 @@
         <v>315</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>108</v>
       </c>
@@ -1986,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -2000,10 +2052,10 @@
         <v>256</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>64</v>
       </c>
@@ -2014,10 +2066,10 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>13</v>
       </c>
@@ -2028,10 +2080,10 @@
         <v>214</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -2042,10 +2094,10 @@
         <v>951</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>96</v>
       </c>
@@ -2056,10 +2108,10 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>121</v>
       </c>
@@ -2070,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>97</v>
       </c>
@@ -2084,10 +2136,10 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>4</v>
       </c>
@@ -2098,10 +2150,10 @@
         <v>636</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -2112,10 +2164,10 @@
         <v>892</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>7</v>
       </c>
@@ -2126,10 +2178,10 @@
         <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -2140,10 +2192,10 @@
         <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>49</v>
       </c>
@@ -2154,10 +2206,10 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>111</v>
       </c>
@@ -2168,10 +2220,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>77</v>
       </c>
@@ -2182,10 +2234,10 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>15</v>
       </c>
@@ -2196,10 +2248,10 @@
         <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>82</v>
       </c>
@@ -2210,10 +2262,10 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>119</v>
       </c>
@@ -2224,10 +2276,10 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>117</v>
       </c>
@@ -2238,10 +2290,10 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>126</v>
       </c>
@@ -2252,10 +2304,10 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>83</v>
       </c>
@@ -2266,10 +2318,10 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>93</v>
       </c>
@@ -2280,10 +2332,10 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>134</v>
       </c>
@@ -2294,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>112</v>
       </c>
@@ -2308,10 +2360,10 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>110</v>
       </c>
@@ -2322,10 +2374,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>31</v>
       </c>
@@ -2336,10 +2388,10 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>33</v>
       </c>
@@ -2350,10 +2402,10 @@
         <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>8</v>
       </c>
@@ -2364,10 +2416,10 @@
         <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>41</v>
       </c>
@@ -2378,10 +2430,10 @@
         <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>24</v>
       </c>
@@ -2392,10 +2444,10 @@
         <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>102</v>
       </c>
@@ -2406,10 +2458,10 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>47</v>
       </c>
@@ -2420,10 +2472,10 @@
         <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>20</v>
       </c>
@@ -2434,10 +2486,10 @@
         <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>10</v>
       </c>
@@ -2448,10 +2500,10 @@
         <v>264</v>
       </c>
       <c r="D89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>17</v>
       </c>
@@ -2462,10 +2514,10 @@
         <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>72</v>
       </c>
@@ -2476,10 +2528,10 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>14</v>
       </c>
@@ -2490,10 +2542,10 @@
         <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>109</v>
       </c>
@@ -2504,10 +2556,10 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>120</v>
       </c>
@@ -2518,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>132</v>
       </c>
@@ -2532,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>65</v>
       </c>
@@ -2546,10 +2598,10 @@
         <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>21</v>
       </c>
@@ -2560,10 +2612,10 @@
         <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>100</v>
       </c>
@@ -2574,10 +2626,10 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>29</v>
       </c>
@@ -2588,10 +2640,10 @@
         <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>59</v>
       </c>
@@ -2602,10 +2654,10 @@
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>12</v>
       </c>
@@ -2616,10 +2668,10 @@
         <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -2630,10 +2682,10 @@
         <v>810</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>9</v>
       </c>
@@ -2644,10 +2696,10 @@
         <v>267</v>
       </c>
       <c r="D103" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -2658,10 +2710,10 @@
         <v>1623</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>26</v>
       </c>
@@ -2672,10 +2724,10 @@
         <v>101</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>22</v>
       </c>
@@ -2686,10 +2738,10 @@
         <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>5</v>
       </c>
@@ -2700,10 +2752,10 @@
         <v>382</v>
       </c>
       <c r="D107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>28</v>
       </c>
@@ -2714,10 +2766,10 @@
         <v>93</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>18</v>
       </c>
@@ -2728,10 +2780,10 @@
         <v>129</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -2742,10 +2794,10 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>25</v>
       </c>
@@ -2756,10 +2808,10 @@
         <v>101</v>
       </c>
       <c r="D111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>70</v>
       </c>
@@ -2770,10 +2822,10 @@
         <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>123</v>
       </c>
@@ -2784,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>104</v>
       </c>
@@ -2798,10 +2850,10 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>99</v>
       </c>
@@ -2812,10 +2864,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>88</v>
       </c>
@@ -2826,10 +2878,10 @@
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>57</v>
       </c>
@@ -2840,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>51</v>
       </c>
@@ -2854,10 +2906,10 @@
         <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>131</v>
       </c>
@@ -2868,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>91</v>
       </c>
@@ -2882,10 +2934,10 @@
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>130</v>
       </c>
@@ -2896,10 +2948,10 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>127</v>
       </c>
@@ -2910,10 +2962,10 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>32</v>
       </c>
@@ -2924,10 +2976,10 @@
         <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>23</v>
       </c>
@@ -2938,10 +2990,10 @@
         <v>105</v>
       </c>
       <c r="D124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>107</v>
       </c>
@@ -2951,8 +3003,11 @@
       <c r="C125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>94</v>
       </c>
@@ -2962,8 +3017,11 @@
       <c r="C126">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>37</v>
       </c>
@@ -2973,8 +3031,11 @@
       <c r="C127">
         <v>48</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>113</v>
       </c>
@@ -2984,8 +3045,11 @@
       <c r="C128">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>81</v>
       </c>
@@ -2995,8 +3059,11 @@
       <c r="C129">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>122</v>
       </c>
@@ -3006,8 +3073,11 @@
       <c r="C130">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>62</v>
       </c>
@@ -3017,8 +3087,11 @@
       <c r="C131">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>27</v>
       </c>
@@ -3028,8 +3101,11 @@
       <c r="C132">
         <v>93</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>90</v>
       </c>
@@ -3039,8 +3115,11 @@
       <c r="C133">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>105</v>
       </c>
@@ -3050,8 +3129,11 @@
       <c r="C134">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>39</v>
       </c>
@@ -3061,8 +3143,11 @@
       <c r="C135">
         <v>44</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>118</v>
       </c>
@@ -3072,8 +3157,11 @@
       <c r="C136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>63</v>
       </c>
@@ -3083,8 +3171,11 @@
       <c r="C137">
         <v>26</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>86</v>
       </c>
@@ -3093,13 +3184,17 @@
       </c>
       <c r="C138">
         <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D138">
     <sortCondition ref="D2:D138"/>
   </sortState>
-  <conditionalFormatting sqref="G30:G1048576 G1:G28">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G37:G1048576 G1:G35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3114,6 +3209,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3128,7 +3224,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30:G1048576 G1:G28</xm:sqref>
+          <xm:sqref>G37:G1048576 G1:G35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Notebooks/Subsystem_Counts.xlsx
+++ b/Notebooks/Subsystem_Counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablodigiusto/Documents/GitHub/Whole-Cell-Network-Reconstruction-for-CHO-cells/Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66BF0F1-8663-CA44-98E6-F188156B7B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E40826E-5867-B843-A9D8-878FFBC255D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="164">
   <si>
     <t>Subsystem</t>
   </si>
@@ -470,9 +470,6 @@
     <t>Cholesterol</t>
   </si>
   <si>
-    <t>Glycans and Proteins</t>
-  </si>
-  <si>
     <t>Eicosanoid metabolism</t>
   </si>
   <si>
@@ -522,13 +519,19 @@
   </si>
   <si>
     <t>Inositol Phosphate &amp; others</t>
+  </si>
+  <si>
+    <t>Glycans and Proteins 1</t>
+  </si>
+  <si>
+    <t>Glycans and Proteins 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +554,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -611,6 +621,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -916,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,10 +967,13 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2">
         <f>SUMIF($D$2:$D$138,F2,$C$2:$C$138)</f>
@@ -977,7 +991,10 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>143</v>
@@ -998,7 +1015,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>144</v>
@@ -1019,14 +1039,17 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G5">
-        <f>SUMIF($D$2:$D$138,F5,$C$2:$C$138)/2</f>
-        <v>231.5</v>
+        <f>SUMIF($D$2:$D$138,F5,$C$2:$C$138)</f>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1040,14 +1063,17 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G6">
-        <f>SUMIF($D$2:$D$138,F6,$C$2:$C$138)/2</f>
-        <v>231.5</v>
+        <f>SUMIF($D$2:$D$138,F6,$C$2:$C$138)</f>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1061,10 +1087,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>157</v>
-      </c>
-      <c r="F7" t="s">
-        <v>158</v>
       </c>
       <c r="G7">
         <f>SUMIF($D$2:$D$138,F7,$C$2:$C$138)</f>
@@ -1082,7 +1111,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>141</v>
@@ -1103,7 +1135,10 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>141</v>
@@ -1124,7 +1159,10 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>141</v>
@@ -1145,7 +1183,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>141</v>
@@ -1166,7 +1207,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>141</v>
@@ -1187,7 +1231,10 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>141</v>
@@ -1208,7 +1255,10 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>141</v>
@@ -1229,7 +1279,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>141</v>
@@ -1250,7 +1303,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>141</v>
@@ -1271,7 +1327,10 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -1292,7 +1351,10 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>141</v>
@@ -1313,7 +1375,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>141</v>
@@ -1334,7 +1399,10 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>141</v>
@@ -1355,7 +1423,10 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>141</v>
@@ -1376,7 +1447,10 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
       </c>
       <c r="F22" t="s">
         <v>141</v>
@@ -1397,7 +1471,10 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -1418,10 +1495,13 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24">
         <f>SUMIF($D$2:$D$138,F24,$C$2:$C$138)</f>
@@ -1439,10 +1519,13 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25">
         <f>SUMIF($D$2:$D$138,F25,$C$2:$C$138)</f>
@@ -1460,7 +1543,10 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -1481,7 +1567,10 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>
@@ -1502,7 +1591,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
       </c>
       <c r="F28" t="s">
         <v>142</v>
@@ -1523,7 +1615,10 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
       </c>
       <c r="F29" t="s">
         <v>142</v>
@@ -1544,7 +1639,10 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
       </c>
       <c r="F30" t="s">
         <v>142</v>
@@ -1565,7 +1663,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
       </c>
       <c r="F31" t="s">
         <v>142</v>
@@ -1586,7 +1687,10 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
       </c>
       <c r="F32" t="s">
         <v>142</v>
@@ -1607,7 +1711,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
       </c>
       <c r="F33" t="s">
         <v>142</v>
@@ -1628,7 +1735,10 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
       </c>
       <c r="F34" t="s">
         <v>142</v>
@@ -1649,10 +1759,13 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G35">
         <f>SUMIF($D$2:$D$138,F35,$C$2:$C$138)</f>
@@ -1670,10 +1783,13 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36">
         <f>SUMIF($D$2:$D$138,F36,$C$2:$C$138)</f>
@@ -1691,10 +1807,13 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37">
         <f>SUMIF($D$2:$D$138,F37,$C$2:$C$138)</f>
@@ -1712,10 +1831,13 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G38">
         <f>SUMIF($D$2:$D$138,F38,$C$2:$C$138)</f>
@@ -1733,10 +1855,13 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G39">
         <f>SUMIF($D$2:$D$138,F39,$C$2:$C$138)</f>
@@ -1754,10 +1879,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40">
         <f>SUMIF($D$2:$D$138,F40,$C$2:$C$138)</f>
@@ -1775,10 +1903,13 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G41">
         <f>SUMIF($D$2:$D$138,F41,$C$2:$C$138)</f>
@@ -1796,10 +1927,13 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42">
         <f>SUMIF($D$2:$D$138,F42,$C$2:$C$138)</f>
@@ -1819,8 +1953,11 @@
       <c r="D43" t="s">
         <v>143</v>
       </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43">
         <f>SUMIF($D$2:$D$138,F43,$C$2:$C$138)</f>
@@ -1840,8 +1977,11 @@
       <c r="D44" t="s">
         <v>143</v>
       </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44">
         <f>SUMIF($D$2:$D$138,F44,$C$2:$C$138)</f>
@@ -1861,8 +2001,11 @@
       <c r="D45" t="s">
         <v>143</v>
       </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G45">
         <f>SUMIF($D$2:$D$138,F45,$C$2:$C$138)</f>
@@ -1882,8 +2025,11 @@
       <c r="D46" t="s">
         <v>143</v>
       </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
       <c r="F46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G46">
         <f>SUMIF($D$2:$D$138,F46,$C$2:$C$138)</f>
@@ -1903,8 +2049,11 @@
       <c r="D47" t="s">
         <v>143</v>
       </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G47">
         <f>SUMIF($D$2:$D$138,F47,$C$2:$C$138)</f>
@@ -2052,7 +2201,7 @@
         <v>256</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2080,7 +2229,7 @@
         <v>214</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2094,7 +2243,7 @@
         <v>951</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2108,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,7 +2355,7 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2220,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,7 +2383,7 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2247,8 +2396,8 @@
       <c r="C71">
         <v>151</v>
       </c>
-      <c r="D71" t="s">
-        <v>145</v>
+      <c r="D71" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2262,7 +2411,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2276,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2290,7 +2439,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2304,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2332,7 +2481,7 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2360,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2374,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,7 +2537,7 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2402,7 +2551,7 @@
         <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2416,7 +2565,7 @@
         <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,7 +2579,7 @@
         <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,7 +2593,7 @@
         <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2472,7 +2621,7 @@
         <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,7 +2635,7 @@
         <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2500,7 +2649,7 @@
         <v>264</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2514,7 +2663,7 @@
         <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2528,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2542,7 +2691,7 @@
         <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,7 +2705,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2570,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2598,7 +2747,7 @@
         <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2612,7 +2761,7 @@
         <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,7 +2775,7 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2640,7 +2789,7 @@
         <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2654,7 +2803,7 @@
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2668,7 +2817,7 @@
         <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2794,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2808,7 +2957,7 @@
         <v>101</v>
       </c>
       <c r="D111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,7 +2971,7 @@
         <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2836,7 +2985,7 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2850,7 +2999,7 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2864,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2878,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2892,7 +3041,7 @@
         <v>34</v>
       </c>
       <c r="D117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2906,7 +3055,7 @@
         <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2920,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2934,7 +3083,7 @@
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2948,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2962,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2976,7 +3125,7 @@
         <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2990,7 +3139,7 @@
         <v>105</v>
       </c>
       <c r="D124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3004,7 +3153,7 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3018,7 +3167,7 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3032,7 +3181,7 @@
         <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3046,7 +3195,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3060,7 +3209,7 @@
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3074,7 +3223,7 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3088,7 +3237,7 @@
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3102,7 +3251,7 @@
         <v>93</v>
       </c>
       <c r="D132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3116,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3130,7 +3279,7 @@
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3144,7 +3293,7 @@
         <v>44</v>
       </c>
       <c r="D135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3158,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3172,7 +3321,7 @@
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3186,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Notebooks/Subsystem_Counts.xlsx
+++ b/Notebooks/Subsystem_Counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablodigiusto/Documents/GitHub/Whole-Cell-Network-Reconstruction-for-CHO-cells/Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E40826E-5867-B843-A9D8-878FFBC255D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CA4F0-8219-1E4E-B9EF-4BE377A3531A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="165">
   <si>
     <t>Subsystem</t>
   </si>
@@ -452,9 +452,6 @@
     <t>BIOMASS AND MAINTENANCE FUNCTIONS</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>Number of rxns</t>
   </si>
   <si>
@@ -525,6 +522,12 @@
   </si>
   <si>
     <t>Glycans and Proteins 2</t>
+  </si>
+  <si>
+    <t>Package Name</t>
+  </si>
+  <si>
+    <t>Package Nº</t>
   </si>
 </sst>
 </file>
@@ -543,6 +546,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -927,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="150" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -937,6 +941,7 @@
     <col min="2" max="2" width="62.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="55.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" customWidth="1"/>
@@ -949,11 +954,17 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -967,13 +978,13 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2">
         <f>SUMIF($D$2:$D$138,F2,$C$2:$C$138)</f>
@@ -991,13 +1002,13 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G4" si="0">SUMIF($D$2:$D$138,F3,$C$2:$C$138)</f>
@@ -1015,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -1039,13 +1050,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5">
         <f>SUMIF($D$2:$D$138,F5,$C$2:$C$138)</f>
@@ -1063,13 +1074,13 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <f>SUMIF($D$2:$D$138,F6,$C$2:$C$138)</f>
@@ -1087,13 +1098,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7">
         <f>SUMIF($D$2:$D$138,F7,$C$2:$C$138)</f>
@@ -1111,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2">
         <f>SUMIF($D$2:$D$138,F8,$C$2:$C$138)/16</f>
@@ -1135,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ref="G9:G23" si="1">SUMIF($D$2:$D$138,F9,$C$2:$C$138)/16</f>
@@ -1159,13 +1170,13 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
@@ -1183,13 +1194,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
@@ -1207,13 +1218,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
@@ -1231,13 +1242,13 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
@@ -1255,13 +1266,13 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
@@ -1279,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
@@ -1303,13 +1314,13 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
@@ -1327,13 +1338,13 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
@@ -1351,13 +1362,13 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
@@ -1375,13 +1386,13 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
@@ -1399,13 +1410,13 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
@@ -1423,13 +1434,13 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
@@ -1447,13 +1458,13 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
@@ -1471,13 +1482,13 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
@@ -1495,13 +1506,13 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G24">
         <f>SUMIF($D$2:$D$138,F24,$C$2:$C$138)</f>
@@ -1519,13 +1530,13 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25">
         <f>SUMIF($D$2:$D$138,F25,$C$2:$C$138)</f>
@@ -1543,13 +1554,13 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" s="2">
         <f>SUMIF($D$2:$D$138,F26,$C$2:$C$138)/9</f>
@@ -1567,13 +1578,13 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ref="G27:G34" si="2">SUMIF($D$2:$D$138,F27,$C$2:$C$138)/9</f>
@@ -1591,13 +1602,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="2"/>
@@ -1615,13 +1626,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="2"/>
@@ -1639,13 +1650,13 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="2"/>
@@ -1663,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="2"/>
@@ -1687,13 +1698,13 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="2"/>
@@ -1711,13 +1722,13 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="2"/>
@@ -1735,13 +1746,13 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="2"/>
@@ -1759,16 +1770,16 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G35">
-        <f>SUMIF($D$2:$D$138,F35,$C$2:$C$138)</f>
+        <f t="shared" ref="G35:G48" si="3">SUMIF($D$2:$D$138,F35,$C$2:$C$138)</f>
         <v>282</v>
       </c>
     </row>
@@ -1783,16 +1794,16 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G36">
-        <f>SUMIF($D$2:$D$138,F36,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>1178</v>
       </c>
     </row>
@@ -1807,16 +1818,16 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37">
-        <f>SUMIF($D$2:$D$138,F37,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
     </row>
@@ -1831,16 +1842,16 @@
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38">
-        <f>SUMIF($D$2:$D$138,F38,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -1855,16 +1866,16 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G39">
-        <f>SUMIF($D$2:$D$138,F39,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
     </row>
@@ -1879,16 +1890,16 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40">
-        <f>SUMIF($D$2:$D$138,F40,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>289</v>
       </c>
     </row>
@@ -1903,16 +1914,16 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G41">
-        <f>SUMIF($D$2:$D$138,F41,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
     </row>
@@ -1927,16 +1938,16 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G42">
-        <f>SUMIF($D$2:$D$138,F42,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>394</v>
       </c>
     </row>
@@ -1951,16 +1962,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43">
-        <f>SUMIF($D$2:$D$138,F43,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>315</v>
       </c>
     </row>
@@ -1975,16 +1986,16 @@
         <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G44">
-        <f>SUMIF($D$2:$D$138,F44,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
     </row>
@@ -1999,16 +2010,16 @@
         <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45">
-        <f>SUMIF($D$2:$D$138,F45,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
@@ -2023,16 +2034,16 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46">
-        <f>SUMIF($D$2:$D$138,F46,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>186</v>
       </c>
     </row>
@@ -2047,16 +2058,16 @@
         <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G47">
-        <f>SUMIF($D$2:$D$138,F47,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
     </row>
@@ -2071,10 +2082,10 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G48">
-        <f>SUMIF($D$2:$D$138,F48,$C$2:$C$138)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2089,7 +2100,7 @@
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2103,7 +2114,7 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2117,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2131,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2145,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2159,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2173,7 +2184,7 @@
         <v>315</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2187,7 +2198,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2201,7 +2212,7 @@
         <v>256</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2215,7 +2226,7 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2229,7 +2240,7 @@
         <v>214</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2243,7 +2254,7 @@
         <v>951</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2257,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2271,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2285,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2299,7 +2310,7 @@
         <v>636</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,7 +2324,7 @@
         <v>892</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2327,7 +2338,7 @@
         <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2341,7 +2352,7 @@
         <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2355,7 +2366,7 @@
         <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2383,7 +2394,7 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2397,7 +2408,7 @@
         <v>151</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2411,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2425,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2439,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2453,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2467,7 +2478,7 @@
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2481,7 +2492,7 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2495,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2509,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2523,7 +2534,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2537,7 +2548,7 @@
         <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2551,7 +2562,7 @@
         <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2565,7 +2576,7 @@
         <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2579,7 +2590,7 @@
         <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2593,7 +2604,7 @@
         <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,7 +2618,7 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2621,7 +2632,7 @@
         <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2635,7 +2646,7 @@
         <v>124</v>
       </c>
       <c r="D88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2649,7 +2660,7 @@
         <v>264</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2663,7 +2674,7 @@
         <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2677,7 +2688,7 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2691,7 +2702,7 @@
         <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2705,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2719,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2733,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,7 +2758,7 @@
         <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,7 +2772,7 @@
         <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2789,7 +2800,7 @@
         <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2803,7 +2814,7 @@
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2817,7 +2828,7 @@
         <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2831,7 +2842,7 @@
         <v>810</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,7 +2856,7 @@
         <v>267</v>
       </c>
       <c r="D103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2859,7 +2870,7 @@
         <v>1623</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2873,7 +2884,7 @@
         <v>101</v>
       </c>
       <c r="D105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2887,7 +2898,7 @@
         <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,7 +2912,7 @@
         <v>382</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2915,7 +2926,7 @@
         <v>93</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2929,7 +2940,7 @@
         <v>129</v>
       </c>
       <c r="D109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2943,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2957,7 +2968,7 @@
         <v>101</v>
       </c>
       <c r="D111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2971,7 +2982,7 @@
         <v>22</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2985,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2999,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3013,7 +3024,7 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3027,7 +3038,7 @@
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3041,7 +3052,7 @@
         <v>34</v>
       </c>
       <c r="D117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3055,7 +3066,7 @@
         <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3069,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3083,7 +3094,7 @@
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3097,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3111,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3125,7 +3136,7 @@
         <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3139,7 +3150,7 @@
         <v>105</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3153,7 +3164,7 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3167,7 +3178,7 @@
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3181,7 +3192,7 @@
         <v>48</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3195,7 +3206,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3209,7 +3220,7 @@
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3223,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3237,7 +3248,7 @@
         <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3251,7 +3262,7 @@
         <v>93</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3265,7 +3276,7 @@
         <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3279,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3293,7 +3304,7 @@
         <v>44</v>
       </c>
       <c r="D135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3307,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3321,7 +3332,7 @@
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3335,7 +3346,7 @@
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
